--- a/数据整理/stocks/A股/深证主板/002453-华软科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002453-华软科技.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -811,7 +812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,17 +823,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -842,13 +863,255 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5525</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4965</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2273</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.49</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002453-华软科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002453-华软科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1058,7 +1059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,17 +1070,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1089,14 +1110,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.43</v>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7753</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1105,13 +1148,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6005</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5493</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.49</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002453-华软科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002453-华软科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1343,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,17 +1355,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1395,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.13</v>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8033</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1390,14 +1433,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.43</v>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9460</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1406,13 +1471,211 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6076</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009693</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国积极成长一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5469</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015385</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1905</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.49</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002453-华软科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002453-华软科技.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,357 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001822</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华商智能生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.76</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5680</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001749</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商中国机遇股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.26</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3967</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001933</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华商新兴活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.98</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.72</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2031</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.43</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002103</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商康泰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>78.89</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1752</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>630005</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华商动态阿尔法混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>73.51</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1284</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>530016</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>建信恒稳价值混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>73.81</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008437</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>九泰行业优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>50.36</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008438</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>九泰行业优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>50.36</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -865,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009693</t>
+          <t>001822</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国积极成长一年定期开放混合</t>
+          <t>华商智能生活灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.77</t>
+          <t>25.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.41</t>
+          <t>90.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5525</t>
+          <t>1.8033</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -903,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001822</t>
+          <t>010550</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商智能生活灵活配置混合</t>
+          <t>华商双擎领航混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>13.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.19</t>
+          <t>90.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>6.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4965</t>
+          <t>0.9460</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -941,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008082</t>
+          <t>001933</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国寿安保研究精选混合A</t>
+          <t>华商新兴活力灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>92.12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2273</t>
+          <t>0.6076</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -979,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001933</t>
+          <t>009693</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华商新兴活力灵活配置混合</t>
+          <t>富国积极成长一年定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>18.99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.68</t>
+          <t>95.11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1417</t>
+          <t>0.5469</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1017,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008083</t>
+          <t>015385</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国寿安保研究精选混合C</t>
+          <t>华商智能生活灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>90.97</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0087</t>
+          <t>0.1905</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1395,36 +1135,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001822</t>
+          <t>009693</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商智能生活灵活配置混合</t>
+          <t>富国积极成长一年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.47</t>
+          <t>20.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.97</t>
+          <t>98.41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.08</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8033</t>
+          <t>0.5525</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1433,36 +1173,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010550</t>
+          <t>001822</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商双擎领航混合</t>
+          <t>华商智能生活灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.73</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.85</t>
+          <t>92.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.89</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9460</t>
+          <t>0.4965</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1471,36 +1211,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001933</t>
+          <t>008082</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商新兴活力灵活配置混合</t>
+          <t>国寿安保研究精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.68</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6076</t>
+          <t>0.2273</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1509,36 +1249,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009693</t>
+          <t>001933</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国积极成长一年定期开放混合</t>
+          <t>华商新兴活力灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18.99</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.11</t>
+          <t>89.68</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>6.98</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5469</t>
+          <t>0.1417</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1547,36 +1287,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>015385</t>
+          <t>008083</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华商智能生活灵活配置混合C</t>
+          <t>国寿安保研究精选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.97</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.08</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1905</t>
+          <t>0.0087</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1590,96 +1330,356 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5680</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3967</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1752</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>630005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商动态阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
-        <v>4.09</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.49</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002453-华软科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002453-华软科技.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>4.09</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>3.13</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.43</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.49</v>
       </c>
     </row>
@@ -549,6 +566,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6692</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7446</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7355</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013886</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7173</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015385</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5973</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013887</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2996</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014350</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1925</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014351</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -794,7 +1171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1078,7 +1455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1324,7 +1701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002453-华软科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002453-华软科技.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>4.96</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>4.09</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>3.13</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.43</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.49</v>
       </c>
     </row>
@@ -566,6 +583,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6692</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6826</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015385</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5973</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013886</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3593</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014350</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013887</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014351</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -925,7 +1264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1171,7 +1510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1455,7 +1794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1701,7 +2040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
